--- a/src/main/webapp/resource/excel/basicExcelForm.xlsx
+++ b/src/main/webapp/resource/excel/basicExcelForm.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db379dbb0cd2eae2/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flago\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{CA09C6F0-8982-405B-B49D-7039029C1833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{282D57D3-E53A-4043-9B36-6311AE02FACC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC79E6F-E46E-42B5-B747-DA06C1C8E888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B55A80D-A163-4F5E-B7A4-FD5F84984298}"/>
   </bookViews>
   <sheets>
     <sheet name="나의 일정" sheetId="1" r:id="rId1"/>
+    <sheet name="상세일정" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>여행기간</t>
   </si>
@@ -50,12 +51,33 @@
     <t>구플에서 일정보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>상세일정 보기</t>
+  </si>
+  <si>
+    <t>나의 상세일정</t>
+  </si>
+  <si>
+    <t>일차</t>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +130,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,12 +168,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -174,6 +229,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -183,11 +247,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -209,7 +279,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +609,7 @@
   <dimension ref="B1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2394,108 +2473,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="18" customHeight="1">
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="V1" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="V1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="2:28" ht="18.600000000000001" customHeight="1">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="V2" s="7" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="V2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
     </row>
     <row r="3" spans="2:28" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="V3" s="7" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="V3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
     </row>
     <row r="4" spans="2:28" ht="19.8" thickBot="1">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7"/>
+      <c r="V4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2511,10 +2592,244 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="http://www.earthtory.com/mypage/et_1506150135160046589001434342916?type=plan_sub&amp;gdb_srl=51403" xr:uid="{2F52E86B-80C8-47C4-90B5-6E0526460BDE}"/>
-    <hyperlink ref="B4:P4" r:id="rId2" display="구플에서 일정보기" xr:uid="{82C578E4-9DE6-4C59-865F-CA617A9CD414}"/>
+    <hyperlink ref="V4" location="'상세일정'!A1" display="'상세일정'!A1" xr:uid="{7C22FB6B-6CCD-4EB7-A7FB-905E5D409A5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AB375D-3E34-46D0-91F0-796D61ED90A9}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="3.8984375" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="3" max="3" width="37.09765625" customWidth="1"/>
+    <col min="4" max="4" width="43.8984375" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.8" thickBot="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" thickTop="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>